--- a/ClueMapColored.xlsx
+++ b/ClueMapColored.xlsx
@@ -197,13 +197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +522,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -922,7 +922,7 @@
       <c r="M6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -963,7 +963,7 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1002,7 +1002,7 @@
       <c r="P7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -1079,7 +1079,7 @@
       <c r="R8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="T8" s="4" t="s">
@@ -1088,7 +1088,7 @@
       <c r="U8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="W8" s="1">
@@ -1321,7 +1321,7 @@
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1534,7 +1534,7 @@
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1602,7 +1602,7 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1644,7 +1644,7 @@
       <c r="Q16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -1715,7 +1715,7 @@
       <c r="Q17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="S17" s="4" t="s">
@@ -1756,7 +1756,7 @@
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -1771,10 +1771,10 @@
       <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -1957,7 +1957,7 @@
       <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
